--- a/TOEFL LM/voc/托福单词复习及筛选-2021年6月19日.xlsx
+++ b/TOEFL LM/voc/托福单词复习及筛选-2021年6月19日.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\NowORNever1\TOEFL LM\voc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21483F3-ECEC-42C6-9AA3-576028734839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394FE2B-AE88-4D9D-95FB-4429382455F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8835" windowHeight="7890" xr2:uid="{2DF58516-EFF1-4769-8009-746C19ED6C05}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="1477">
   <si>
     <t>accomplishment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5816,6 +5816,84 @@
   </si>
   <si>
     <t>list19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>accuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aggressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alphabet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antibiotic</t>
+  </si>
+  <si>
+    <t>avoid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beneficial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafeteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonsequently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constricted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cultivated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daisy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dioxide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5974,7 +6052,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6265,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FBBED5-8694-4A7C-8E8A-5004FA3D1741}">
   <dimension ref="A1:G1645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1426" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1450" sqref="B1450"/>
+    <sheetView tabSelected="1" topLeftCell="A1468" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1470" sqref="B1470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17830,7 +17908,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441" s="1">
         <v>1441</v>
       </c>
@@ -17838,7 +17916,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442" s="1">
         <v>1442</v>
       </c>
@@ -17846,7 +17924,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443" s="1">
         <v>1443</v>
       </c>
@@ -17854,7 +17932,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444" s="1">
         <v>1444</v>
       </c>
@@ -17862,7 +17940,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445" s="1">
         <v>1445</v>
       </c>
@@ -17870,7 +17948,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1446" s="1">
         <v>1446</v>
       </c>
@@ -17878,7 +17956,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447" s="1">
         <v>1447</v>
       </c>
@@ -17886,7 +17964,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448" s="1">
         <v>1448</v>
       </c>
@@ -17894,7 +17972,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449" s="1">
         <v>1449</v>
       </c>
@@ -17902,117 +17980,177 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450" s="1">
         <v>1450</v>
       </c>
-    </row>
-    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1450" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451" s="1">
         <v>1451</v>
       </c>
-    </row>
-    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1451" s="2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452" s="1">
         <v>1452</v>
       </c>
-    </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1452" s="2" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453" s="1">
         <v>1453</v>
       </c>
-    </row>
-    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1453" s="2" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454" s="1">
         <v>1454</v>
       </c>
-    </row>
-    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1454" s="2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455" s="1">
         <v>1455</v>
       </c>
-    </row>
-    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1455" s="2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1456" s="1">
         <v>1456</v>
       </c>
-    </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1456" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457" s="1">
         <v>1457</v>
       </c>
-    </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1457" s="2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" s="1">
         <v>1458</v>
       </c>
-    </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1458" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459" s="1">
         <v>1459</v>
       </c>
-    </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1459" s="2" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460" s="1">
         <v>1460</v>
       </c>
-    </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1460" s="2" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461" s="1">
         <v>1461</v>
       </c>
-    </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1461" s="2" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1462" s="1">
         <v>1462</v>
       </c>
-    </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1462" s="2" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463" s="1">
         <v>1463</v>
       </c>
-    </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1463" s="2" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" s="1">
         <v>1464</v>
       </c>
-    </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1464" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1465" s="1">
         <v>1465</v>
       </c>
-    </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1465" s="2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1466" s="1">
         <v>1466</v>
       </c>
-    </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1466" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" s="1">
         <v>1467</v>
       </c>
-    </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1467" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" s="1">
         <v>1468</v>
       </c>
-    </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1468" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" s="1">
         <v>1469</v>
       </c>
-    </row>
-    <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1469" s="2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" s="1">
         <v>1470</v>
       </c>
     </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471" s="1">
         <v>1471</v>
       </c>
     </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" s="1">
         <v>1472</v>
       </c>
